--- a/1-Data/WG2_Snow_data.xlsx
+++ b/1-Data/WG2_Snow_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\1-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/1-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63C0C56-7F40-4993-BF39-16B09515D325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A63C0C56-7F40-4993-BF39-16B09515D325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF6FBC3D-6C47-4274-8A52-32B14034C75B}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{315C03ED-2DC1-4BE9-89CE-6E94FB34B97A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{315C03ED-2DC1-4BE9-89CE-6E94FB34B97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="84">
   <si>
     <t>pi_name</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>18Feb25</t>
-  </si>
-  <si>
-    <t>&lt;1</t>
   </si>
   <si>
     <t>20Feb25</t>
@@ -383,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -397,17 +394,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -757,63 +748,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC02E07-F875-4C94-A36D-C7F9F6B2F4BD}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -845,15 +836,15 @@
       <c r="J2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>44.751916000000001</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>-79.777751800000004</v>
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -885,15 +876,15 @@
       <c r="J3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>44.142710000000001</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>-77.386049999999997</v>
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -925,15 +916,15 @@
       <c r="J4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>42.472000000000001</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>-82.8767</v>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -965,15 +956,15 @@
       <c r="J5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>44.220610000000001</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>-76.501649999999998</v>
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1005,15 +996,15 @@
       <c r="J6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>41.795189999999998</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>-87.576189999999997</v>
       </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1045,15 +1036,15 @@
       <c r="J7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>46.776739999999997</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>-88.483090000000004</v>
       </c>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1085,15 +1076,15 @@
       <c r="J8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>43.297260000000001</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>-79.801839999999999</v>
       </c>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1125,15 +1116,15 @@
       <c r="J9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>46.664920000000002</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>-90.859920000000002</v>
       </c>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -1165,15 +1156,15 @@
       <c r="J10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>41.658349000000001</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>-82.826087000000001</v>
       </c>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1205,15 +1196,15 @@
       <c r="J11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>44.737580000000001</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>-87.777169999999998</v>
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -1245,15 +1236,15 @@
       <c r="J12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>42.468910000000001</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>-82.41095</v>
       </c>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1285,15 +1276,15 @@
       <c r="J13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>47.121000000000002</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>-88.545000000000002</v>
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1325,15 +1316,15 @@
       <c r="J14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>44.581519999999998</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>-87.979669999999999</v>
       </c>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1365,15 +1356,15 @@
       <c r="J15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>44.765729999999998</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>-85.605779999999996</v>
       </c>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1405,15 +1396,15 @@
       <c r="J16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>44.974690000000002</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>-85.646770000000004</v>
       </c>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1445,15 +1436,15 @@
       <c r="J17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>42.47513</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>-81.441479999999999</v>
       </c>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1485,15 +1476,15 @@
       <c r="J18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>42.824939999999998</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>-79.567639999999997</v>
       </c>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1525,15 +1516,15 @@
       <c r="J19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>41.281170000000003</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>-81.670349999999999</v>
       </c>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1565,15 +1556,15 @@
       <c r="J20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>41.515250000000002</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>-81.721530000000001</v>
       </c>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1605,15 +1596,15 @@
       <c r="J21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>46.454450000000001</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>-84.830200000000005</v>
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1645,15 +1636,15 @@
       <c r="J22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>46.013069999999999</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <v>-84.830200000000005</v>
       </c>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1685,15 +1676,15 @@
       <c r="J23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>46.664230000000003</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <v>-82.754599999999996</v>
       </c>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
@@ -1725,15 +1716,15 @@
       <c r="J24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <v>42.471944399999998</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <v>-82.875</v>
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
@@ -1765,15 +1756,15 @@
       <c r="J25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>44.581330000000001</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>-87.979699999999994</v>
       </c>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1805,15 +1796,15 @@
       <c r="J26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>41.795189999999998</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>-87.576189999999997</v>
       </c>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -1845,15 +1836,15 @@
       <c r="J27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>44.220610000000001</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>-76.501649999999998</v>
       </c>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -1885,15 +1876,15 @@
       <c r="J28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>44.737580000000001</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>-87.777169999999998</v>
       </c>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1925,15 +1916,15 @@
       <c r="J29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>46.664920000000002</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>-90.859920000000002</v>
       </c>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -1965,15 +1956,15 @@
       <c r="J30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>44.142710000000001</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>-77.386049999999997</v>
       </c>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
@@ -2005,15 +1996,15 @@
       <c r="J31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>44.751916000000001</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>-79.777751800000004</v>
       </c>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
@@ -2045,15 +2036,15 @@
       <c r="J32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>47.121000000000002</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
         <v>-88.545000000000002</v>
       </c>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
@@ -2085,14 +2076,14 @@
       <c r="J33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>46.776739999999997</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
         <v>-88.483090000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>49</v>
       </c>
@@ -2124,15 +2115,15 @@
       <c r="J34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <v>41.472749999999998</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <v>-82.175200000000004</v>
       </c>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -2164,15 +2155,15 @@
       <c r="J35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <v>44.974679999999999</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <v>-85.646879999999996</v>
       </c>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -2204,14 +2195,14 @@
       <c r="J36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="6">
         <v>44.76614</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <v>-85.605770000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -2243,19 +2234,19 @@
       <c r="J37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <v>42.466940000000001</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <v>-82.420829999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>12</v>
@@ -2282,14 +2273,14 @@
       <c r="J38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="6">
         <v>43.301000000000002</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <v>-79.791939999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>56</v>
       </c>
@@ -2321,14 +2312,14 @@
       <c r="J39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="6">
         <v>43.736359999999998</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <v>-83.948599999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>56</v>
       </c>
@@ -2360,14 +2351,14 @@
       <c r="J40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="6">
         <v>43.73836</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="6">
         <v>-83.640780000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>56</v>
       </c>
@@ -2399,14 +2390,14 @@
       <c r="J41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="6">
         <v>43.66742</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="6">
         <v>-83.807019999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -2432,25 +2423,25 @@
         <f t="shared" si="1"/>
         <v>PIB_Snow_Thickness_Feb</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>63</v>
+      <c r="I42" s="4">
+        <v>0</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="6">
         <v>41.659790000000001</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="6">
         <v>-82.830584999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>12</v>
@@ -2477,14 +2468,14 @@
       <c r="J43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="6">
         <v>43.301000000000002</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="6">
         <v>-79.791939999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>25</v>
       </c>
@@ -2498,7 +2489,7 @@
         <v>53</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>13</v>
@@ -2516,19 +2507,19 @@
       <c r="J44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>43.297260000000001</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="5">
         <v>-79.801839999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>12</v>
@@ -2555,28 +2546,28 @@
       <c r="J45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="6">
         <v>43.089300000000001</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="6">
         <v>-82.412300000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>13</v>
@@ -2594,19 +2585,19 @@
       <c r="J46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="6">
         <v>42.351483000000002</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="6">
         <v>-82.935167000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>12</v>
@@ -2615,7 +2606,7 @@
         <v>53</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
@@ -2633,19 +2624,19 @@
       <c r="J47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="6">
         <v>43.456829999999997</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="6">
         <v>-82.251166999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>12</v>
@@ -2654,7 +2645,7 @@
         <v>53</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>13</v>
@@ -2672,28 +2663,28 @@
       <c r="J48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="6">
         <v>43.741950000000003</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="6">
         <v>-81.834582999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>13</v>
@@ -2711,23 +2702,23 @@
       <c r="J49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="6">
         <v>46.289400000000001</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="6">
         <v>-83.793000000000006</v>
       </c>
       <c r="M49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="C50" s="4" t="s">
         <v>12</v>
       </c>
@@ -2735,7 +2726,7 @@
         <v>53</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>13</v>
@@ -2753,19 +2744,19 @@
       <c r="J50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="6">
         <v>46.529167000000001</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="6">
         <v>-84.586116700000005</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>12</v>
@@ -2774,7 +2765,7 @@
         <v>53</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>13</v>
@@ -2792,14 +2783,14 @@
       <c r="J51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="4">
         <v>46.51417</v>
       </c>
-      <c r="L51" s="8">
+      <c r="L51" s="4">
         <v>-84.346299999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>29</v>
       </c>
@@ -2812,8 +2803,8 @@
       <c r="D52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>78</v>
+      <c r="E52" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>13</v>
@@ -2831,28 +2822,28 @@
       <c r="J52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="6">
         <v>41.659790000000001</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="6">
         <v>-82.830584999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="C53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>79</v>
+      <c r="E53" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>13</v>
@@ -2870,19 +2861,19 @@
       <c r="J53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="6">
         <v>43.741950000000003</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="6">
         <v>-81.834582999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>12</v>
@@ -2890,8 +2881,8 @@
       <c r="D54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>79</v>
+      <c r="E54" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>13</v>
@@ -2909,22 +2900,22 @@
       <c r="J54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="6">
         <v>46.289400000000001</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="6">
         <v>-83.793000000000006</v>
       </c>
       <c r="M54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>12</v>
@@ -2932,8 +2923,8 @@
       <c r="D55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>79</v>
+      <c r="E55" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>13</v>
@@ -2951,31 +2942,31 @@
       <c r="J55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="6">
         <v>46.529167000000001</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="6">
         <v>-84.586116700000005</v>
       </c>
       <c r="M55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="C56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>79</v>
+      <c r="E56" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>13</v>
@@ -2987,16 +2978,16 @@
         <f t="shared" si="1"/>
         <v>SMR_03_Snow_Thickness_Feb</v>
       </c>
-      <c r="I56" t="s">
-        <v>63</v>
+      <c r="I56">
+        <v>0</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="4">
         <v>46.502499999999998</v>
       </c>
-      <c r="L56" s="8">
+      <c r="L56" s="4">
         <v>-84.320830000000001</v>
       </c>
     </row>
